--- a/biology/Zoologie/Agelenidae/Agelenidae.xlsx
+++ b/biology/Zoologie/Agelenidae/Agelenidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Agelenidae sont une famille d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Agelenidae sont une famille d'araignées aranéomorphes.
 Cette famille comprend notamment les agélènes et les tégénaires.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents sauf aux pôles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents sauf aux pôles.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des araignées dont les filières postérieures sont longues et possèdent deux articles[2]. Leurs huit yeux sont disposés en deux colonnes[3],[2]. Elles sont agiles et très rapides[3]. La toile de ces espèces est très repérables en forme de nappe épaisse reliée à un entonnoir, sorte de retraite tubulaire attenant.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des araignées dont les filières postérieures sont longues et possèdent deux articles. Leurs huit yeux sont disposés en deux colonnes,. Elles sont agiles et très rapides. La toile de ces espèces est très repérables en forme de nappe épaisse reliée à un entonnoir, sorte de retraite tubulaire attenant.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Paléogène[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Paléogène.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 10/09/2023)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 10/09/2023) :
 Acutipetala Dankittipakul &amp; Zhang, 2008
 Aeolocoelotes Okumura, 2020
 Agelena Walckenaer, 1805
@@ -704,7 +724,7 @@
 Vappolotes Zhao &amp; Li, 2019
 Wadotes Chamberlin, 1925
 Yunguirius Li, Zhao &amp; Li, 2023
-Selon World Spider Catalog (version 20.5, 2020)[4] :
+Selon World Spider Catalog (version 20.5, 2020) :
 † Inceptor Petrunkevitch, 1942</t>
         </is>
       </c>
@@ -733,11 +753,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite par C. L. Koch en 1837.
-Elle rassemble 1387 espèces dans 96 genres actuels[1].
-La famille à laquelle appartient les Coelotinae, le genre Coelotes et ses genres voisins[5] a été discutée, ce sont des Agelenidae pour Miller et al. en 2010[6] après avoir été placés dans les Amaurobiidae[7] ou les Coelotidae[8].
+Elle rassemble 1387 espèces dans 96 genres actuels.
+La famille à laquelle appartient les Coelotinae, le genre Coelotes et ses genres voisins a été discutée, ce sont des Agelenidae pour Miller et al. en 2010 après avoir été placés dans les Amaurobiidae ou les Coelotidae.
 </t>
         </is>
       </c>
@@ -766,7 +788,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>C. L. Koch, 1837 : Übersicht des Arachnidensystems. Nürnberg, vol. 1, p. 1-39 (texte intégral).</t>
         </is>
